--- a/data/pca/factorExposure/factorExposure_2013-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>9.135621281871465e-06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00184268952914077</v>
+      </c>
+      <c r="C2">
+        <v>0.03260254807978544</v>
+      </c>
+      <c r="D2">
+        <v>-0.007165058488309739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002002388035144581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006087833400646996</v>
+      </c>
+      <c r="C4">
+        <v>0.08598004252978166</v>
+      </c>
+      <c r="D4">
+        <v>-0.07713758658075343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0009316425242099032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01345587564006001</v>
+      </c>
+      <c r="C6">
+        <v>0.1089071093208891</v>
+      </c>
+      <c r="D6">
+        <v>-0.0352266463741322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002048385341450562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004659334961744876</v>
+      </c>
+      <c r="C7">
+        <v>0.05447904751336052</v>
+      </c>
+      <c r="D7">
+        <v>-0.034210545968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000125804871554755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005565051063259469</v>
+      </c>
+      <c r="C8">
+        <v>0.03669284005127385</v>
+      </c>
+      <c r="D8">
+        <v>-0.03855766495687666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004071817410820211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004085267396986838</v>
+      </c>
+      <c r="C9">
+        <v>0.07029583840797664</v>
+      </c>
+      <c r="D9">
+        <v>-0.07194650751082189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004447385945209106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005520143586378297</v>
+      </c>
+      <c r="C10">
+        <v>0.06845275180648058</v>
+      </c>
+      <c r="D10">
+        <v>0.2076593070907017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003529539363934977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005331558520007364</v>
+      </c>
+      <c r="C11">
+        <v>0.07898732322353089</v>
+      </c>
+      <c r="D11">
+        <v>-0.06481004767110207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000121626057191556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003953550781703646</v>
+      </c>
+      <c r="C12">
+        <v>0.06357854004518768</v>
+      </c>
+      <c r="D12">
+        <v>-0.04819442195260935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003061217136714191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008383563684109552</v>
+      </c>
+      <c r="C13">
+        <v>0.06545252455796167</v>
+      </c>
+      <c r="D13">
+        <v>-0.06689890150845362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001684200722589803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00142785466700736</v>
+      </c>
+      <c r="C14">
+        <v>0.0465111522194614</v>
+      </c>
+      <c r="D14">
+        <v>-0.01156898748392414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00100792571401728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005892636332258467</v>
+      </c>
+      <c r="C15">
+        <v>0.04142106892889532</v>
+      </c>
+      <c r="D15">
+        <v>-0.03221745399208768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001727938003193056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004909052198792498</v>
+      </c>
+      <c r="C16">
+        <v>0.0654818795466444</v>
+      </c>
+      <c r="D16">
+        <v>-0.04811184541164297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002207850611677959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008902230052614793</v>
+      </c>
+      <c r="C20">
+        <v>0.06572759696000528</v>
+      </c>
+      <c r="D20">
+        <v>-0.05305623597051284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.004936554691050351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009850062789523118</v>
+      </c>
+      <c r="C21">
+        <v>0.02251040112062456</v>
+      </c>
+      <c r="D21">
+        <v>-0.03603671849115377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01666820113901679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006945569617044437</v>
+      </c>
+      <c r="C22">
+        <v>0.09316313784212021</v>
+      </c>
+      <c r="D22">
+        <v>-0.1042673838123143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01699168003803603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006760745700107242</v>
+      </c>
+      <c r="C23">
+        <v>0.09398159269349204</v>
+      </c>
+      <c r="D23">
+        <v>-0.1047642075025762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002273372806825643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004929450479381381</v>
+      </c>
+      <c r="C24">
+        <v>0.07365921759410973</v>
+      </c>
+      <c r="D24">
+        <v>-0.06089801675795251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004266814776179812</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002703868603181027</v>
+      </c>
+      <c r="C25">
+        <v>0.07745311277215326</v>
+      </c>
+      <c r="D25">
+        <v>-0.06649777417415571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006326516644988359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003688457525969612</v>
+      </c>
+      <c r="C26">
+        <v>0.04297924991221047</v>
+      </c>
+      <c r="D26">
+        <v>-0.02809964402162433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005414616441078816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005981980489292096</v>
+      </c>
+      <c r="C28">
+        <v>0.1182355590521113</v>
+      </c>
+      <c r="D28">
+        <v>0.3116792136908885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001500245743802621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003082289344118526</v>
+      </c>
+      <c r="C29">
+        <v>0.04985109287346814</v>
+      </c>
+      <c r="D29">
+        <v>-0.00766850206986515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003894798675218064</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008718170167627397</v>
+      </c>
+      <c r="C30">
+        <v>0.1400537836889861</v>
+      </c>
+      <c r="D30">
+        <v>-0.102824072798451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001597577774617798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00609877526787044</v>
+      </c>
+      <c r="C31">
+        <v>0.04551908386216054</v>
+      </c>
+      <c r="D31">
+        <v>-0.03238564189179058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009689160700289867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003974981009844334</v>
+      </c>
+      <c r="C32">
+        <v>0.03936336570484687</v>
+      </c>
+      <c r="D32">
+        <v>-0.02052116055800584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003362483615859048</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007902388728400666</v>
+      </c>
+      <c r="C33">
+        <v>0.08453748715653653</v>
+      </c>
+      <c r="D33">
+        <v>-0.07531918936013926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004718479101394936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003755684298698193</v>
+      </c>
+      <c r="C34">
+        <v>0.05750192807692962</v>
+      </c>
+      <c r="D34">
+        <v>-0.04772413412147412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002819640349516685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004744750651575206</v>
+      </c>
+      <c r="C35">
+        <v>0.03923840643900811</v>
+      </c>
+      <c r="D35">
+        <v>-0.0139141982558339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004183051904936127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001389841935844233</v>
+      </c>
+      <c r="C36">
+        <v>0.02446880552325096</v>
+      </c>
+      <c r="D36">
+        <v>-0.02233784374822376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002041186535039887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009497162614130607</v>
+      </c>
+      <c r="C38">
+        <v>0.03460332462432264</v>
+      </c>
+      <c r="D38">
+        <v>-0.0213244285046469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01333405827407368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000950422713383202</v>
+      </c>
+      <c r="C39">
+        <v>0.1164833646565546</v>
+      </c>
+      <c r="D39">
+        <v>-0.07965093760413837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009701332450406509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001980683183455958</v>
+      </c>
+      <c r="C40">
+        <v>0.08551795722141473</v>
+      </c>
+      <c r="D40">
+        <v>-0.0191309575189052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004398559666472996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007266894923906266</v>
+      </c>
+      <c r="C41">
+        <v>0.03873096077853998</v>
+      </c>
+      <c r="D41">
+        <v>-0.03508718552826033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003282270037556468</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003510120150967446</v>
+      </c>
+      <c r="C43">
+        <v>0.05120279977362028</v>
+      </c>
+      <c r="D43">
+        <v>-0.02532814541769171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002948700286788416</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003366791035955217</v>
+      </c>
+      <c r="C44">
+        <v>0.1110083487361972</v>
+      </c>
+      <c r="D44">
+        <v>-0.07811199349292686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001907404225544858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002263833451395654</v>
+      </c>
+      <c r="C46">
+        <v>0.03455400490713177</v>
+      </c>
+      <c r="D46">
+        <v>-0.03042277226183233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008233729460032983</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002623373105076728</v>
+      </c>
+      <c r="C47">
+        <v>0.03804345688523916</v>
+      </c>
+      <c r="D47">
+        <v>-0.02409989054314199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003136328009757366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006328322203172344</v>
+      </c>
+      <c r="C48">
+        <v>0.02828591231924082</v>
+      </c>
+      <c r="D48">
+        <v>-0.03478769320000111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01461486304748332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01445368978171761</v>
+      </c>
+      <c r="C49">
+        <v>0.1751479691633645</v>
+      </c>
+      <c r="D49">
+        <v>-0.02316693618194742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001361784599033378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003550120886764649</v>
+      </c>
+      <c r="C50">
+        <v>0.04329901809940607</v>
+      </c>
+      <c r="D50">
+        <v>-0.0365686986020347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001245628586104528</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004234731717603238</v>
+      </c>
+      <c r="C51">
+        <v>0.02124512464338605</v>
+      </c>
+      <c r="D51">
+        <v>-0.03204588596009961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0002150745506414486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0200891384254582</v>
+      </c>
+      <c r="C53">
+        <v>0.1675225596734645</v>
+      </c>
+      <c r="D53">
+        <v>-0.04403744714411896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007627052177594297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008645261623570483</v>
+      </c>
+      <c r="C54">
+        <v>0.05568550601614941</v>
+      </c>
+      <c r="D54">
+        <v>-0.04179366067453413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004110533207426032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009181650313585255</v>
+      </c>
+      <c r="C55">
+        <v>0.1068722975795787</v>
+      </c>
+      <c r="D55">
+        <v>-0.05115647087708922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002729198951056484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0196354153153829</v>
+      </c>
+      <c r="C56">
+        <v>0.1743770916843958</v>
+      </c>
+      <c r="D56">
+        <v>-0.04269171083746486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007915746296566144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01924017165243163</v>
+      </c>
+      <c r="C58">
+        <v>0.1052407294544993</v>
+      </c>
+      <c r="D58">
+        <v>-0.06123159865907329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006796685250404153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009421445641698879</v>
+      </c>
+      <c r="C59">
+        <v>0.1660178929588133</v>
+      </c>
+      <c r="D59">
+        <v>0.2918880564762408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004688732005631751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02339152815713091</v>
+      </c>
+      <c r="C60">
+        <v>0.2228664403231991</v>
+      </c>
+      <c r="D60">
+        <v>-0.02742153753252442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01510399070686753</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002051746023210377</v>
+      </c>
+      <c r="C61">
+        <v>0.09480413968290489</v>
+      </c>
+      <c r="D61">
+        <v>-0.06108123527119365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1705398224994112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437078911774533</v>
+      </c>
+      <c r="C62">
+        <v>0.08287673535713132</v>
+      </c>
+      <c r="D62">
+        <v>-0.05142065234071889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001666961644162296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.0063795948630718</v>
+      </c>
+      <c r="C63">
+        <v>0.06003310866497465</v>
+      </c>
+      <c r="D63">
+        <v>-0.02403156744754224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005668244376654122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01481063174154675</v>
+      </c>
+      <c r="C64">
+        <v>0.1035713991188099</v>
+      </c>
+      <c r="D64">
+        <v>-0.062811637386798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001583916099338057</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01712605769990068</v>
+      </c>
+      <c r="C65">
+        <v>0.1167470493975728</v>
+      </c>
+      <c r="D65">
+        <v>-0.02164699494264908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008781290416324604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01235705977494804</v>
+      </c>
+      <c r="C66">
+        <v>0.1571479218808833</v>
+      </c>
+      <c r="D66">
+        <v>-0.1199760433848321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003394118250316526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01559578874826854</v>
+      </c>
+      <c r="C67">
+        <v>0.0650985144114352</v>
+      </c>
+      <c r="D67">
+        <v>-0.03117721148058711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00656862654766516</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009737748147742275</v>
+      </c>
+      <c r="C68">
+        <v>0.09926516528438731</v>
+      </c>
+      <c r="D68">
+        <v>0.2593361026756788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002947595089264403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005795420443831834</v>
+      </c>
+      <c r="C69">
+        <v>0.04903557988262435</v>
+      </c>
+      <c r="D69">
+        <v>-0.0423006813871188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>1.280149216439177e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001757919592248954</v>
+      </c>
+      <c r="C70">
+        <v>0.002142451984711703</v>
+      </c>
+      <c r="D70">
+        <v>-0.00198052285311999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001482838369677673</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006040775980185341</v>
+      </c>
+      <c r="C71">
+        <v>0.104363318567467</v>
+      </c>
+      <c r="D71">
+        <v>0.2874170002887176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00571170088477032</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01537981371010258</v>
+      </c>
+      <c r="C72">
+        <v>0.1489129915176625</v>
+      </c>
+      <c r="D72">
+        <v>-0.02387419274103548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01184062582596668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02922629790107787</v>
+      </c>
+      <c r="C73">
+        <v>0.2800613251855682</v>
+      </c>
+      <c r="D73">
+        <v>-0.04473312695300087</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004992908521336335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001198176155441835</v>
+      </c>
+      <c r="C74">
+        <v>0.1039076354779903</v>
+      </c>
+      <c r="D74">
+        <v>-0.04528063971965872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.0039971356068661</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01068285032330669</v>
+      </c>
+      <c r="C75">
+        <v>0.1322096808803446</v>
+      </c>
+      <c r="D75">
+        <v>-0.02635549137527363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009158875133898627</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02115423995635175</v>
+      </c>
+      <c r="C76">
+        <v>0.1495894166143495</v>
+      </c>
+      <c r="D76">
+        <v>-0.06780111304639262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>9.789864365281424e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02403829378236877</v>
+      </c>
+      <c r="C77">
+        <v>0.1291847405519986</v>
+      </c>
+      <c r="D77">
+        <v>-0.06439474321931843</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001426969892239374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01419529813515877</v>
+      </c>
+      <c r="C78">
+        <v>0.09391172220930996</v>
+      </c>
+      <c r="D78">
+        <v>-0.0698469144966371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02417302598454602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03697441835974049</v>
+      </c>
+      <c r="C79">
+        <v>0.1573086311973996</v>
+      </c>
+      <c r="D79">
+        <v>-0.03371641307257942</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004818237073091402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01039357324568966</v>
+      </c>
+      <c r="C80">
+        <v>0.04095350004003951</v>
+      </c>
+      <c r="D80">
+        <v>-0.03347206550801902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00065019893989186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01457133289110378</v>
+      </c>
+      <c r="C81">
+        <v>0.1247928671541595</v>
+      </c>
+      <c r="D81">
+        <v>-0.05411394596372492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00539150100834044</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01930296035662155</v>
+      </c>
+      <c r="C82">
+        <v>0.1437498620931875</v>
+      </c>
+      <c r="D82">
+        <v>-0.0444682216331508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008812004696225242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009917489455004968</v>
+      </c>
+      <c r="C83">
+        <v>0.05521273407880048</v>
+      </c>
+      <c r="D83">
+        <v>-0.0504574432670339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01249623109159788</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01153615541850325</v>
+      </c>
+      <c r="C84">
+        <v>0.03576524099451311</v>
+      </c>
+      <c r="D84">
+        <v>0.005665187380926938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01497953111937011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02782131241685261</v>
+      </c>
+      <c r="C85">
+        <v>0.1297831425474272</v>
+      </c>
+      <c r="D85">
+        <v>-0.04914699341168331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001263450632946151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005357812963274877</v>
+      </c>
+      <c r="C86">
+        <v>0.04835862720095224</v>
+      </c>
+      <c r="D86">
+        <v>-0.02311952263746755</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00599007996566869</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01004944588833678</v>
+      </c>
+      <c r="C87">
+        <v>0.1295863954113362</v>
+      </c>
+      <c r="D87">
+        <v>-0.07123589046374233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01313900704127047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002941229025450892</v>
+      </c>
+      <c r="C88">
+        <v>0.06848779517047925</v>
+      </c>
+      <c r="D88">
+        <v>-0.01370199017254597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01522735891431089</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001290767944928632</v>
+      </c>
+      <c r="C89">
+        <v>0.1552062171776707</v>
+      </c>
+      <c r="D89">
+        <v>0.3440250766021062</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002844421354806814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007207920185510378</v>
+      </c>
+      <c r="C90">
+        <v>0.1356551870449861</v>
+      </c>
+      <c r="D90">
+        <v>0.3247602672786097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006463472195138213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01016858772452884</v>
+      </c>
+      <c r="C91">
+        <v>0.1044119921291277</v>
+      </c>
+      <c r="D91">
+        <v>-0.02221778537440736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008707499415863752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000677868476272957</v>
+      </c>
+      <c r="C92">
+        <v>0.143145446400339</v>
+      </c>
+      <c r="D92">
+        <v>0.3290645218660779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.000812418050589932</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005018115982707648</v>
+      </c>
+      <c r="C93">
+        <v>0.115359338245315</v>
+      </c>
+      <c r="D93">
+        <v>0.3139966195011279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003160271410052715</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02227250513029814</v>
+      </c>
+      <c r="C94">
+        <v>0.15639228291058</v>
+      </c>
+      <c r="D94">
+        <v>-0.03669114870496672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004902732622519953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01591862900186547</v>
+      </c>
+      <c r="C95">
+        <v>0.1252844327457772</v>
+      </c>
+      <c r="D95">
+        <v>-0.06322091703236625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001405815492134692</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0339763921001268</v>
+      </c>
+      <c r="C97">
+        <v>0.1815567733390942</v>
+      </c>
+      <c r="D97">
+        <v>-0.02932841250628278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004093284290475454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03621203135934969</v>
+      </c>
+      <c r="C98">
+        <v>0.2519147731227026</v>
+      </c>
+      <c r="D98">
+        <v>-0.04823606107043579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833683394230031</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827546517547531</v>
+      </c>
+      <c r="C99">
+        <v>-0.1106770943324212</v>
+      </c>
+      <c r="D99">
+        <v>0.02992565484243453</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001456760619960004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00312701449309965</v>
+      </c>
+      <c r="C101">
+        <v>0.04989022626195068</v>
+      </c>
+      <c r="D101">
+        <v>-0.008062248725845701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
